--- a/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/E_repeat_7.xlsx
+++ b/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/E_repeat_7.xlsx
@@ -1,290 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34509724-40A2-DB45-B205-166B2C2E6F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="End point" sheetId="1" r:id="rId1"/>
-    <sheet name="Protocol Information" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End point" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protocol Information" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="82">
-  <si>
-    <t>User: USER</t>
-  </si>
-  <si>
-    <t>Path: C:\Program Files (x86)\BMG\CLARIOstar\User\Data\</t>
-  </si>
-  <si>
-    <t>Test ID: 731</t>
-  </si>
-  <si>
-    <t>Test Name: Will 384 DPH 48array</t>
-  </si>
-  <si>
-    <t>Date: 18/03/2020</t>
-  </si>
-  <si>
-    <t>Time: 12:19:55</t>
-  </si>
-  <si>
-    <t>ID1: 180320_Glutamate_repeat_7</t>
-  </si>
-  <si>
-    <t>Fluorescence (FI), multichromatic</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Plate layout</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>7:12</t>
-  </si>
-  <si>
-    <t>13:18</t>
-  </si>
-  <si>
-    <t>19:24</t>
-  </si>
-  <si>
-    <t>A:H</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>I:P</t>
-  </si>
-  <si>
-    <t>Peptide layout</t>
-  </si>
-  <si>
-    <t>No Pep</t>
-  </si>
-  <si>
-    <t>CCPent</t>
-  </si>
-  <si>
-    <t>QLKEIA</t>
-  </si>
-  <si>
-    <t>CCHex2-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-I24N</t>
-  </si>
-  <si>
-    <t>CCHept-L28W</t>
-  </si>
-  <si>
-    <t>GRP22</t>
-  </si>
-  <si>
-    <t>CCHex</t>
-  </si>
-  <si>
-    <t>NLKEIA</t>
-  </si>
-  <si>
-    <t>CCHept-L28K</t>
-  </si>
-  <si>
-    <t>CCHept-I24T</t>
-  </si>
-  <si>
-    <t>CCHept-L7Y</t>
-  </si>
-  <si>
-    <t>GRP35</t>
-  </si>
-  <si>
-    <t>CCHex2</t>
-  </si>
-  <si>
-    <t>CCHept-I17G-L21G</t>
-  </si>
-  <si>
-    <t>CCHept-I17H</t>
-  </si>
-  <si>
-    <t>CCHept-I24H</t>
-  </si>
-  <si>
-    <t>CCHept-L28Y</t>
-  </si>
-  <si>
-    <t>GRP46</t>
-  </si>
-  <si>
-    <t>CCHept</t>
-  </si>
-  <si>
-    <t>CCHept-I17A-L21A</t>
-  </si>
-  <si>
-    <t>CCHept-I17K-L24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21S-I24S</t>
-  </si>
-  <si>
-    <t>CCHept-I24Y</t>
-  </si>
-  <si>
-    <t>GRP51</t>
-  </si>
-  <si>
-    <t>CCHept-I24D</t>
-  </si>
-  <si>
-    <t>CCHept-L14A</t>
-  </si>
-  <si>
-    <t>CCHept-L7K</t>
-  </si>
-  <si>
-    <t>CCHept-L21N-I24N</t>
-  </si>
-  <si>
-    <t>CCHept-L21S-I24Y</t>
-  </si>
-  <si>
-    <t>GRP52</t>
-  </si>
-  <si>
-    <t>CCHept-I24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21A</t>
-  </si>
-  <si>
-    <t>CCHept-L21K-I24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21T-I24T</t>
-  </si>
-  <si>
-    <t>CCHept-L21Y-I24S</t>
-  </si>
-  <si>
-    <t>GRP63</t>
-  </si>
-  <si>
-    <t>CCHept-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-L21K</t>
-  </si>
-  <si>
-    <t>CCHept-L21E-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-L21H-I24H</t>
-  </si>
-  <si>
-    <t>CCHept-I17T</t>
-  </si>
-  <si>
-    <t>GRP80</t>
-  </si>
-  <si>
-    <t>CCHept-I17K</t>
-  </si>
-  <si>
-    <t>CCPent-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-I24S</t>
-  </si>
-  <si>
-    <t>CCHept-L7W</t>
-  </si>
-  <si>
-    <t>CCHept-I24P</t>
-  </si>
-  <si>
-    <t>1. Raw Data (350-15/450-20 1)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -303,21 +47,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -605,1363 +340,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A3:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>User: USER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Path: C:\Program Files (x86)\BMG\CLARIOstar\User\Data\</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test ID: 731</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Test Name: Will 384 DPH 48array</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Date: 18/03/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Time: 12:19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ID1: 180320_Glutamate_repeat_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fluorescence (FI), multichromatic</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1. Raw Data (350-15/450-20 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="E15" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G15" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="H15" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>11</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>12</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>13</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>14</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>15</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>16</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>17</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>18</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>19</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>20</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>21</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>22</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>23</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>363</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>8975</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>389</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>7358</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>2580</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>4742</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>338</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>9114</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>396</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>9968</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>3168</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>6991</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>367</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>10822</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>396</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>9325</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>3479</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>6596</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>346</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>10618</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>379</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>10161</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>3483</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>7031</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>22621</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>4273</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>17488</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>9927</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>3874</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>4389</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>28002</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>5038</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>18079</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>11114</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>4997</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>6907</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>23783</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>4435</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>23658</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>11375</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>4890</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>7011</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>30908</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>4969</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>21519</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>12334</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>5122</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>6441</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>385</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>2712</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>8784</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>6060</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>1615</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>8906</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>401</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>4178</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>11371</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>8471</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>2014</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>11518</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>409</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>4784</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>12142</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>8940</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>2130</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>12041</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>412</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>3696</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>11156</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>8590</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>2007</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="n">
         <v>12275</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>1043</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>5341</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>21840</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>443</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>9466</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>5939</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>1221</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>7847</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>27955</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>539</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>12464</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>7779</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>1216</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>6946</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>30117</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>542</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>12896</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>8509</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>1320</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>5419</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>30290</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>526</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>15291</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>8204</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>21962</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>6776</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>14284</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>5147</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>7177</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>8703</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>29275</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>9611</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>16145</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>7089</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>10664</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>12912</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>32110</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>10268</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>16374</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>7903</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>10519</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>13987</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>30748</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>8837</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>17298</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>7070</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>10006</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" t="n">
         <v>13106</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>23371</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>17539</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>8993</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>6048</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>5284</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>5769</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>31177</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>21594</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>12816</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>8324</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>7672</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>9671</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>32392</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>21858</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>11941</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>8338</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>7254</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>8498</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>34160</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>21828</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>11266</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>8863</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>7335</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" t="n">
         <v>8013</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>28006</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>26546</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>6093</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>7928</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>5360</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>1110</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>25251</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>25135</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>5909</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>7951</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>5081</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>1093</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>26001</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>24570</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>5788</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>7350</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>5431</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>1199</v>
       </c>
-      <c r="T22">
+      <c r="T22" t="n">
         <v>21564</v>
       </c>
-      <c r="U22">
+      <c r="U22" t="n">
         <v>23148</v>
       </c>
-      <c r="V22">
+      <c r="V22" t="n">
         <v>5845</v>
       </c>
-      <c r="W22">
+      <c r="W22" t="n">
         <v>6720</v>
       </c>
-      <c r="X22">
+      <c r="X22" t="n">
         <v>5304</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" t="n">
         <v>1068</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>5064</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>1705</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>1129</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>14876</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>7403</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>10562</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>4264</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>1713</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>895</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>14103</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>6369</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>8952</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>4322</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>1699</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>1058</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>13699</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>6729</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>9686</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="n">
         <v>3845</v>
       </c>
-      <c r="U23">
+      <c r="U23" t="n">
         <v>1743</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="n">
         <v>927</v>
       </c>
-      <c r="W23">
+      <c r="W23" t="n">
         <v>13479</v>
       </c>
-      <c r="X23">
+      <c r="X23" t="n">
         <v>6506</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" t="n">
         <v>9272</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>378</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>12569</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>428</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>12533</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>4240</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>8572</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>362</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>11594</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>408</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>9933</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>3506</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>7849</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>309</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>10262</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>390</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>10388</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>3379</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>8249</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="n">
         <v>331</v>
       </c>
-      <c r="U24">
+      <c r="U24" t="n">
         <v>10098</v>
       </c>
-      <c r="V24">
+      <c r="V24" t="n">
         <v>414</v>
       </c>
-      <c r="W24">
+      <c r="W24" t="n">
         <v>10413</v>
       </c>
-      <c r="X24">
+      <c r="X24" t="n">
         <v>3370</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" t="n">
         <v>7465</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>37494</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>5799</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>27795</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>13648</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>5144</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>7511</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>32808</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>5241</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>25938</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>12028</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>4834</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>6195</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>31413</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>5343</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>22593</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>11523</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>4520</v>
       </c>
-      <c r="S25">
+      <c r="S25" t="n">
         <v>6242</v>
       </c>
-      <c r="T25">
+      <c r="T25" t="n">
         <v>24760</v>
       </c>
-      <c r="U25">
+      <c r="U25" t="n">
         <v>5042</v>
       </c>
-      <c r="V25">
+      <c r="V25" t="n">
         <v>21033</v>
       </c>
-      <c r="W25">
+      <c r="W25" t="n">
         <v>12202</v>
       </c>
-      <c r="X25">
+      <c r="X25" t="n">
         <v>4425</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" t="n">
         <v>6701</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>394</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>4750</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>13187</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>7876</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>2133</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>13973</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>421</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>4796</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>12232</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>9642</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>2505</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>12612</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>396</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="n">
         <v>5753</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>14060</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>8626</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>2392</v>
       </c>
-      <c r="S26">
+      <c r="S26" t="n">
         <v>12718</v>
       </c>
-      <c r="T26">
+      <c r="T26" t="n">
         <v>424</v>
       </c>
-      <c r="U26">
+      <c r="U26" t="n">
         <v>4708</v>
       </c>
-      <c r="V26">
+      <c r="V26" t="n">
         <v>13238</v>
       </c>
-      <c r="W26">
+      <c r="W26" t="n">
         <v>9333</v>
       </c>
-      <c r="X26">
+      <c r="X26" t="n">
         <v>2468</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" t="n">
         <v>13435</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>1246</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>8016</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>27240</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>575</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>11481</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>9243</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>1171</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>7683</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>29268</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>630</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>13267</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>8547</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>1168</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="n">
         <v>8398</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>33560</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="n">
         <v>636</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="n">
         <v>12972</v>
       </c>
-      <c r="S27">
+      <c r="S27" t="n">
         <v>8437</v>
       </c>
-      <c r="T27">
+      <c r="T27" t="n">
         <v>1260</v>
       </c>
-      <c r="U27">
+      <c r="U27" t="n">
         <v>7377</v>
       </c>
-      <c r="V27">
+      <c r="V27" t="n">
         <v>31908</v>
       </c>
-      <c r="W27">
+      <c r="W27" t="n">
         <v>616</v>
       </c>
-      <c r="X27">
+      <c r="X27" t="n">
         <v>13404</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" t="n">
         <v>9627</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>28793</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>8994</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>17106</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>6155</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>11166</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>14281</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>27011</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>9864</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>17829</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>6503</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>8455</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>13107</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>30308</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="n">
         <v>9807</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="n">
         <v>16373</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="n">
         <v>7968</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="n">
         <v>11494</v>
       </c>
-      <c r="S28">
+      <c r="S28" t="n">
         <v>10578</v>
       </c>
-      <c r="T28">
+      <c r="T28" t="n">
         <v>29194</v>
       </c>
-      <c r="U28">
+      <c r="U28" t="n">
         <v>11307</v>
       </c>
-      <c r="V28">
+      <c r="V28" t="n">
         <v>19238</v>
       </c>
-      <c r="W28">
+      <c r="W28" t="n">
         <v>6822</v>
       </c>
-      <c r="X28">
+      <c r="X28" t="n">
         <v>9502</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" t="n">
         <v>12202</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>28606</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>19664</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>10427</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>8860</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>7992</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>9620</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>32947</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>20626</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>10717</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>8895</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>6783</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>6952</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>33494</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="n">
         <v>22616</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="n">
         <v>12681</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="n">
         <v>8182</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="n">
         <v>6557</v>
       </c>
-      <c r="S29">
+      <c r="S29" t="n">
         <v>6654</v>
       </c>
-      <c r="T29">
+      <c r="T29" t="n">
         <v>35571</v>
       </c>
-      <c r="U29">
+      <c r="U29" t="n">
         <v>19886</v>
       </c>
-      <c r="V29">
+      <c r="V29" t="n">
         <v>12699</v>
       </c>
-      <c r="W29">
+      <c r="W29" t="n">
         <v>8544</v>
       </c>
-      <c r="X29">
+      <c r="X29" t="n">
         <v>6955</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" t="n">
         <v>9682</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>21310</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>20694</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>5791</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>6555</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>4142</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>880</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>25360</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>24933</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>5484</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>7015</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>5313</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>1450</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="n">
         <v>24860</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="n">
         <v>23894</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="n">
         <v>5788</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="n">
         <v>7954</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="n">
         <v>6027</v>
       </c>
-      <c r="S30">
+      <c r="S30" t="n">
         <v>1034</v>
       </c>
-      <c r="T30">
+      <c r="T30" t="n">
         <v>23786</v>
       </c>
-      <c r="U30">
+      <c r="U30" t="n">
         <v>26889</v>
       </c>
-      <c r="V30">
+      <c r="V30" t="n">
         <v>5245</v>
       </c>
-      <c r="W30">
+      <c r="W30" t="n">
         <v>6962</v>
       </c>
-      <c r="X30">
+      <c r="X30" t="n">
         <v>5946</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" t="n">
         <v>1156</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>4036</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>1442</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>931</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>12554</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>6047</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>7783</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>4756</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>1617</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>1016</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>13318</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>6674</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>11077</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>4833</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="n">
         <v>1669</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="n">
         <v>1012</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>14155</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="n">
         <v>7250</v>
       </c>
-      <c r="S31">
+      <c r="S31" t="n">
         <v>9514</v>
       </c>
-      <c r="T31">
+      <c r="T31" t="n">
         <v>4965</v>
       </c>
-      <c r="U31">
+      <c r="U31" t="n">
         <v>1916</v>
       </c>
-      <c r="V31">
+      <c r="V31" t="n">
         <v>1030</v>
       </c>
-      <c r="W31">
+      <c r="W31" t="n">
         <v>14563</v>
       </c>
-      <c r="X31">
+      <c r="X31" t="n">
         <v>7722</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" t="n">
         <v>9999</v>
       </c>
     </row>
@@ -1971,229 +1760,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s">
-        <v>80</v>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Plate layout</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1:6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7:12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A:H</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I:P</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Peptide layout</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>No Pep</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CCPent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>QLKEIA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CCHex2-I24K</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CCHept-I24N</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CCHept-L28W</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GRP22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CCHex</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NLKEIA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CCHept-L28K</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CCHept-I24T</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CCHept-L7Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GRP35</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CCHex2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CCHept-I17G-L21G</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CCHept-I17H</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CCHept-I24H</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CCHept-L28Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GRP46</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CCHept</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CCHept-I17A-L21A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CCHept-I17K-I24E</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CCHept-L21S-I24S</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CCHept-I24Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GRP51</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CCHept-I24D</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CCHept-L14A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CCHept-L7K</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CCHept-L21N-I24N</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CCHept-L21S-I24Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GRP52</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CCHept-I24E</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CCHept-I24A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CCHept-L21K-I24E</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CCHept-L21T-I24T</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CCHept-L21Y-I24S</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GRP63</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CCHept-I24K</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CCHept-L21K</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CCHept-L21E-I24K</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CCHept-L21H-I24H</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CCHept-I17T</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GRP80</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CCHept-I17K</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CCPent-I24K</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CCHept-I24S</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CCHept-L7W</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CCHept-I24P</t>
+        </is>
       </c>
     </row>
   </sheetData>
